--- a/Config/Excel/__tables__.xlsx
+++ b/Config/Excel/__tables__.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13380"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
+  </si>
+  <si>
+    <t>TbGlobalConst</t>
+  </si>
+  <si>
+    <t>GlobalConst</t>
+  </si>
+  <si>
+    <t>常量表.xlsx</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
 </sst>
 </file>
@@ -1049,18 +1061,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
-    <col min="2" max="2" width="20.3796296296296" customWidth="1"/>
+    <col min="2" max="2" width="20.3833333333333" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="58.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="24.3796296296296" customWidth="1"/>
+    <col min="4" max="4" width="58.5583333333333" customWidth="1"/>
+    <col min="5" max="5" width="24.3833333333333" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1152,6 +1164,23 @@
       </c>
       <c r="K3" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/__tables__.xlsx
+++ b/Config/Excel/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="21000" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -113,13 +113,67 @@
     <t>TbGlobalConst</t>
   </si>
   <si>
-    <t>GlobalConst</t>
-  </si>
-  <si>
-    <t>常量表.xlsx</t>
+    <t>GlobalConstTable</t>
+  </si>
+  <si>
+    <t>Tables/常量表.xlsx</t>
   </si>
   <si>
     <t>one</t>
+  </si>
+  <si>
+    <t>TbAIRobot</t>
+  </si>
+  <si>
+    <t>AIRobotTable</t>
+  </si>
+  <si>
+    <t>Tables/AI机器人表.xlsx</t>
+  </si>
+  <si>
+    <t>TbStartMachine</t>
+  </si>
+  <si>
+    <t>StartMachineTable</t>
+  </si>
+  <si>
+    <t>Tables/StartMachine表.xlsx</t>
+  </si>
+  <si>
+    <t>TbStartZone</t>
+  </si>
+  <si>
+    <t>StartZoneTable</t>
+  </si>
+  <si>
+    <t>Tables/区服表.xlsx</t>
+  </si>
+  <si>
+    <t>TbStartProcess</t>
+  </si>
+  <si>
+    <t>StartProcessTable</t>
+  </si>
+  <si>
+    <t>Tables/进程表.xlsx</t>
+  </si>
+  <si>
+    <t>TbStartScene</t>
+  </si>
+  <si>
+    <t>StartSceneTable</t>
+  </si>
+  <si>
+    <t>Tables/场景表.xlsx</t>
+  </si>
+  <si>
+    <t>TbUnit</t>
+  </si>
+  <si>
+    <t>UnitTable</t>
+  </si>
+  <si>
+    <t>Tables/Unit表.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1061,18 +1115,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="20.3833333333333" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="58.5583333333333" customWidth="1"/>
-    <col min="5" max="5" width="24.3833333333333" customWidth="1"/>
+    <col min="5" max="5" width="28.5" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1181,6 +1235,90 @@
       </c>
       <c r="G4" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/__tables__.xlsx
+++ b/Config/Excel/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11655"/>
+    <workbookView windowWidth="25440" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
     <t>StartZoneTable</t>
   </si>
   <si>
-    <t>Tables/区服表.xlsx</t>
+    <t>Tables/数据库区服表.xlsx</t>
   </si>
   <si>
     <t>TbStartProcess</t>
@@ -155,7 +155,7 @@
     <t>StartProcessTable</t>
   </si>
   <si>
-    <t>Tables/进程表.xlsx</t>
+    <t>Tables/系统进程表.xlsx</t>
   </si>
   <si>
     <t>TbStartScene</t>
@@ -164,7 +164,7 @@
     <t>StartSceneTable</t>
   </si>
   <si>
-    <t>Tables/场景表.xlsx</t>
+    <t>Tables/服务器场景表.xlsx</t>
   </si>
   <si>
     <t>TbUnit</t>
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
